--- a/6. Archivos/Centrales.xlsx
+++ b/6. Archivos/Centrales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Documents\GitHub\Proyecto-Introduccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Documents\GitHub\Proyecto-Introduccion\6. Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB35BD-99E7-43B6-BF26-9A547D759C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Centrales" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,15 @@
   <definedNames>
     <definedName name="Connection1" localSheetId="0" hidden="1">Centrales!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="244">
   <si>
     <t>MJEPIRAC</t>
   </si>
@@ -726,6 +735,42 @@
   </si>
   <si>
     <t>(Se usará oferta inicial)</t>
+  </si>
+  <si>
+    <t>GUAVIO,MGUAVIO</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>FLORES IV,FLORES1</t>
+  </si>
+  <si>
+    <t>GUAJIR11,GUAJIR21</t>
+  </si>
+  <si>
+    <t>TASAJER1,TASAJERO2</t>
+  </si>
+  <si>
+    <t>PAIPA1,PAIPA2,PAIPA3,PAIPA4</t>
+  </si>
+  <si>
+    <t>ZIPAEMG2,ZIPAEMG3,ZIPAEMG4,ZIPAEMG5</t>
+  </si>
+  <si>
+    <t>CTGEMG1,CTGEMG2,CTGEMG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>20191217 DN</t>
+  </si>
+  <si>
+    <t>20191217 OI</t>
+  </si>
+  <si>
+    <t>SANJOSEDELAMONTAÑA,SANJOSEDELAMONTAÑAII1</t>
   </si>
 </sst>
 </file>
@@ -791,7 +836,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -866,6 +911,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -873,7 +938,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -904,9 +969,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -916,12 +978,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1290,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,6 +1377,9 @@
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.7109375" customWidth="1"/>
+    <col min="12" max="12" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
     <col min="23" max="23" width="35.28515625" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" customWidth="1"/>
     <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1314,7 +1388,7 @@
     <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -1343,8 +1417,17 @@
         <v>163</v>
       </c>
       <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -1371,8 +1454,11 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -1397,12 +1483,15 @@
       <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="23"/>
+      <c r="L3" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
@@ -1430,8 +1519,11 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -1457,12 +1549,15 @@
       <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="23"/>
+      <c r="L5" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -1488,12 +1583,15 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="23"/>
+      <c r="L6" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -1520,11 +1618,14 @@
         <v>37</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -1552,8 +1653,11 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -1579,12 +1683,15 @@
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="22"/>
+      <c r="L9" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
@@ -1612,8 +1719,11 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
@@ -1639,12 +1749,15 @@
       <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="22"/>
+      <c r="L11" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>172</v>
       </c>
@@ -1670,12 +1783,15 @@
       <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="22"/>
+      <c r="L12" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
@@ -1700,10 +1816,13 @@
       <c r="H13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="L13" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1730,8 +1849,11 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1759,8 +1881,11 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -1788,8 +1913,11 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1817,8 +1945,11 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -1846,8 +1977,11 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -1875,8 +2009,11 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
@@ -1904,8 +2041,11 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -1933,8 +2073,14 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1962,8 +2108,11 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1991,15 +2140,18 @@
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2022,15 +2174,18 @@
       <c r="J24" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2053,15 +2208,18 @@
       <c r="J25" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2082,15 +2240,21 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2111,15 +2275,18 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2140,15 +2307,18 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2169,15 +2339,18 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2198,15 +2371,18 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L30" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2227,15 +2403,18 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L31" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2256,15 +2435,18 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2282,17 +2464,23 @@
       <c r="H33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="L33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2313,15 +2501,18 @@
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2338,17 +2529,20 @@
         <v>231</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="13"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L35" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2367,15 +2561,18 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>126</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2396,8 +2593,11 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>182</v>
       </c>
@@ -2425,8 +2625,11 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -2454,8 +2657,11 @@
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -2483,8 +2689,17 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M40" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -2512,8 +2727,11 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -2541,8 +2759,11 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -2570,8 +2791,11 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L43" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -2599,8 +2823,11 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L44" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -2628,8 +2855,11 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2657,8 +2887,11 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2686,8 +2919,11 @@
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L47" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
@@ -2715,24 +2951,27 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
+      <c r="L48" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="110" spans="13:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
@@ -3550,15 +3789,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="Q110:U110"/>
     <mergeCell ref="M110:P110"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/6. Archivos/Centrales.xlsx
+++ b/6. Archivos/Centrales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGA\Documents\GitHub\Proyecto-Introduccion\6. Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB35BD-99E7-43B6-BF26-9A547D759C99}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B764C-AF15-4619-9F41-5047AF8731B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="245">
   <si>
     <t>MJEPIRAC</t>
   </si>
@@ -771,6 +771,9 @@
   </si>
   <si>
     <t>SANJOSEDELAMONTAÑA,SANJOSEDELAMONTAÑAII1</t>
+  </si>
+  <si>
+    <t>H20 = Dolores in MAP</t>
   </si>
 </sst>
 </file>
@@ -978,6 +981,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,11 +996,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1361,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1486,10 @@
       <c r="H3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="J3" s="21"/>
       <c r="L3" s="17" t="s">
         <v>234</v>
       </c>
@@ -1549,10 +1552,10 @@
       <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="21"/>
       <c r="L5" s="17" t="s">
         <v>235</v>
       </c>
@@ -1583,10 +1586,10 @@
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="23"/>
+      <c r="J6" s="21"/>
       <c r="L6" s="17" t="s">
         <v>236</v>
       </c>
@@ -1683,10 +1686,10 @@
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="25"/>
       <c r="L9" s="17" t="s">
         <v>237</v>
       </c>
@@ -1749,10 +1752,10 @@
       <c r="H11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="25"/>
       <c r="L11" s="17" t="s">
         <v>238</v>
       </c>
@@ -1783,10 +1786,10 @@
       <c r="H12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="25"/>
       <c r="L12" s="17" t="s">
         <v>239</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="19" t="s">
         <v>232</v>
       </c>
       <c r="L21" s="17" t="s">
@@ -2240,7 +2243,7 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="24" t="s">
+      <c r="K26" s="19" t="s">
         <v>233</v>
       </c>
       <c r="L26" s="17" t="s">
@@ -2439,7 +2442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
@@ -2453,6 +2456,7 @@
         <v>44</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2472,8 +2476,11 @@
       <c r="M33" s="17" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>185</v>
       </c>
@@ -2487,8 +2494,8 @@
         <v>44</v>
       </c>
       <c r="E34" s="1">
-        <f>E110+1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>74</v>
@@ -2505,7 +2512,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>179</v>
       </c>
@@ -2520,7 +2527,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>75</v>
@@ -2535,7 +2542,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>180</v>
       </c>
@@ -2550,7 +2557,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>76</v>
@@ -2565,7 +2572,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>181</v>
       </c>
@@ -2580,7 +2587,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>77</v>
@@ -2597,7 +2604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>182</v>
       </c>
@@ -2612,7 +2619,7 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>77</v>
@@ -2629,7 +2636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -2644,7 +2651,7 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>78</v>
@@ -2661,7 +2668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>151</v>
       </c>
@@ -2676,7 +2683,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>79</v>
@@ -2689,17 +2696,17 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="19" t="s">
         <v>233</v>
       </c>
       <c r="L40" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>152</v>
       </c>
@@ -2714,7 +2721,7 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>80</v>
@@ -2731,7 +2738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>153</v>
       </c>
@@ -2746,7 +2753,7 @@
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>81</v>
@@ -2763,7 +2770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>154</v>
       </c>
@@ -2778,7 +2785,7 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>82</v>
@@ -2795,7 +2802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>155</v>
       </c>
@@ -2810,7 +2817,7 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>83</v>
@@ -2827,7 +2834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>156</v>
       </c>
@@ -2842,7 +2849,7 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>84</v>
@@ -2859,7 +2866,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2873,8 +2880,8 @@
         <v>44</v>
       </c>
       <c r="E46" s="1">
-        <f>E45+1</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>85</v>
@@ -2891,7 +2898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2906,7 +2913,7 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>86</v>
@@ -2923,7 +2930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
@@ -2938,7 +2945,7 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>87</v>
@@ -2956,22 +2963,22 @@
       </c>
     </row>
     <row r="110" spans="13:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M110" s="20"/>
-      <c r="N110" s="20"/>
-      <c r="O110" s="20"/>
-      <c r="P110" s="20"/>
-      <c r="Q110" s="20"/>
-      <c r="R110" s="20"/>
-      <c r="S110" s="20"/>
-      <c r="T110" s="20"/>
-      <c r="U110" s="20"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="23"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
